--- a/biology/Zoologie/Cucullanus/Cucullanus.xlsx
+++ b/biology/Zoologie/Cucullanus/Cucullanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cucullanus est un genre de nématodes chromadorés de la famille des Cucullanidae[2],[3],[4],[5],[6],[7],[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cucullanus est un genre de nématodes chromadorés de la famille des Cucullanidae.
 Les espèces sont des endoparasites de poissons et se retrouvent aussi bien en eau salée, qu'en eau saumâtre ou en eau douce.
 </t>
         </is>
